--- a/biology/Zoologie/Antiopella/Antiopella.xlsx
+++ b/biology/Zoologie/Antiopella/Antiopella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Antiopella est un genre de nudibranches de la famille des Janolidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (22 avril 2024)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (22 avril 2024) :
 Antiopella barbarensis (J. G. Cooper, 1863)
 Antiopella capensis (Bergh, 1907)
 Antiopella cristata (Delle Chiaje, 1841)
@@ -553,11 +567,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Antiopella Hoyle, 1902[1],[2].
-Le nom générique, Antiopella, vient en remplacement du nom Antiopa qu'avait choisi à l'origine William Evans Hoyle mais qui était déjà utilisé pour désigner des diptères[2] de la famille des Syrphidae. À noter que ce genre sera par la suite lui-même invalidé et remplacé par Chrysotoxum Meigen, 1803.
-Antiopella a pour synonymes[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Antiopella Hoyle, 1902,.
+Le nom générique, Antiopella, vient en remplacement du nom Antiopa qu'avait choisi à l'origine William Evans Hoyle mais qui était déjà utilisé pour désigner des diptères de la famille des Syrphidae. À noter que ce genre sera par la suite lui-même invalidé et remplacé par Chrysotoxum Meigen, 1803.
+Antiopella a pour synonymes :
 Antiopa Alder &amp; Hancock, 1848
 Janus Vérany, 1844</t>
         </is>
@@ -587,7 +603,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) William E. Hoyle, « Two points in nomenclature. II. The genus Antiopa », Journal of Conchology, Londres, vol. 10,‎ 11 juin 1902, p. 214 (lire en ligne, consulté le 22 avril 2024).</t>
         </is>
